--- a/biology/Zoologie/Duc_à_aigrettes/Duc_à_aigrettes.xlsx
+++ b/biology/Zoologie/Duc_à_aigrettes/Duc_à_aigrettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Duc_%C3%A0_aigrettes</t>
+          <t>Duc_à_aigrettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophostrix cristata
 Le Duc à aigrettes (Lophostrix cristata) est une espèce de rapaces nocturnes appartenant à la famille des Strigidae. C'est la seule espèce du genre Lophostrix.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Duc_%C3%A0_aigrettes</t>
+          <t>Duc_à_aigrettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 40 cm de longueur. Il arbore deux grandes aigrettes blanches disposées en V et des ailes tachetées de blanc. Il émet des appels sous forme de grognements bourrus. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Duc_%C3%A0_aigrettes</t>
+          <t>Duc_à_aigrettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend du sud-est du Mexique au nord de la Bolivie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Duc_%C3%A0_aigrettes</t>
+          <t>Duc_à_aigrettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts primaires ou vieilles secondaires tropicales et subtropicales humides.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Duc_%C3%A0_aigrettes</t>
+          <t>Duc_à_aigrettes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cet oiseau est représenté par 3 sous-espèces :
 Lophostrix cristata cristata (Daudin, 1800) ;
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Duc_%C3%A0_aigrettes</t>
+          <t>Duc_à_aigrettes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Cri</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grondement court, guttural d'intensité croissante, généralement répété toutes les cinq à dix secondes.
 </t>
